--- a/exports/fisher_plasma.xlsx
+++ b/exports/fisher_plasma.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,88 +365,162 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Estado de la Enfermedad al Momento de la Infeccion por SARS-CoV2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Neumonia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Antecedente de Trasplante de CPH</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TIPO TRASPLANTE EST AUTOLOGO 1 ALOGENICO 2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Quimioterapia</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Estado de la Enfermedad al Momento de la Infeccion por SARS-CoV2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Neumonia</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Antecedente de Trasplante de CPH</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>EPOC</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Obesidad</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>HTA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>DIABETES</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>UTI</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ARM</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Evolucion</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>late_vs_early</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2">
+        <v>0.8512241142535006</v>
+      </c>
+      <c r="B2">
+        <v>1.264257577057505</v>
+      </c>
+      <c r="C2">
+        <v>0.5136914226356271</v>
+      </c>
+      <c r="D2">
+        <v>0.8016181471787103</v>
+      </c>
+      <c r="E2">
+        <v>0.4559334045555806</v>
+      </c>
+      <c r="F2">
+        <v>1.834140679314284</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>1.123935257610919</v>
+      </c>
+      <c r="I2">
+        <v>0.7051564489291051</v>
+      </c>
+      <c r="J2">
+        <v>0.8859866373284578</v>
+      </c>
+      <c r="K2">
+        <v>1.099576129724124</v>
+      </c>
+      <c r="L2">
+        <v>1.090098198382979</v>
+      </c>
+      <c r="M2">
+        <v>1.368812020807968</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
         <v>0.8189201310126008</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>0.8146357878548368</v>
+      </c>
+      <c r="C3">
+        <v>0.3062534279141014</v>
+      </c>
+      <c r="D3">
+        <v>0.6256928798743794</v>
+      </c>
+      <c r="E3">
+        <v>0.4096817815001417</v>
+      </c>
+      <c r="F3">
         <v>0.3635571844033653</v>
       </c>
-      <c r="C2">
-        <v>0.8146357878548368</v>
-      </c>
-      <c r="D2">
-        <v>0.3062534279141014</v>
-      </c>
-      <c r="E2">
-        <v>0.6256928798743794</v>
-      </c>
-      <c r="F2">
+      <c r="G3">
         <v>0.5817668252524637</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>0.5928958343228462</v>
       </c>
-      <c r="I2">
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="L3">
         <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.7939863025690763</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
       </c>
     </row>
   </sheetData>
